--- a/forwardprimer-v3_37.xlsx
+++ b/forwardprimer-v3_37.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_37" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F3457-GCACTTCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCACTTCTTCTCGTCGGCAGCGTC</t>
+    <t>F3457-GATGAGACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGAGACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F3458-GTACGTGAGT</t>
+    <t>F3458-CACTCCAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTCCAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>F3459-AGCAGAACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGAACAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>F3460-GTGCAACTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGCAACTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>F3461-GTCAACAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAACAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>F3462-GTGTCAACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCAACGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>F3463-AGAGAAGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAAGACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>F3464-AAGTTGCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTTGCTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>F3465-ACACTGTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTGTCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>F3466-CTCAGAACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAGAACCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>F3467-ACTAGAAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTAGAAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>F3468-TCAAGAGGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGAGGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>F3469-AGAACACGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACACGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>F3470-TGAAGTGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGTGCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>F3471-TCACGATGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACGATGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>F3472-TTCAAGCAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCAAGCAGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>F3473-AGTCGAAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGAAGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>F3474-CAAGGTGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGGTGAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>F3475-TGTAGGAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGGAACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>F3476-ACCTAGGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTAGGAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>F3477-CAGAGAAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGAGAAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>F3478-TTGCACTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCACTCGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>F3479-TGACATGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACATGAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>F3480-TGTGCTTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGCTTCAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>F3481-TTGGTACGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTACGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F3482-AGATCAGACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATCAGACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>F3483-TAGACTTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACTTGCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>F3484-TAGATCCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGATCCAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>F3485-GAGATGGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGATGGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>F3486-GCAGACTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAGACTTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>F3487-AGCTCTGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTCTGACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>F3488-TCACATGCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACATGCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F3489-CTAGGTACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGTACCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F3490-AGGAGACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGAGACGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F3491-GTCAGCAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAGCAACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F3492-AAGGAAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGAAGTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F3493-AACACGTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACGTTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F3494-GTCAAGTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCAAGTGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F3495-GATCTCAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCTCAGGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F3496-AACGATCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGATCAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F3497-TCTACGAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTACGAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F3498-CAGGACACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGGACACTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F3499-TACGACACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGACACTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F3500-CACTGTGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTGTGTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F3501-TAGGACATCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGACATCCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F3502-AGTAGTGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGTGATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F3503-GGAACAACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAACAACGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F3504-TAGCTCTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTCTAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F3505-CTAGAGTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGAGTGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F3506-AACTGGTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGGTCGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F3507-TCACTCAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCAGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F3508-TCTCCAGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCCAGTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F3509-ACACTGAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTGAACATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F3510-TAGTGAACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGAACTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F3511-ATGGAAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGAAGAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F3512-AGTCGTTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGTTCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F3513-TCTGAAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGAAGCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F3514-AACTCACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCACGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F3515-AACCTCATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTCATGGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F3516-ATCACGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCACGACAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F3517-TACCACCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCACCACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3518-GCATCGAACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATCGAACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F3519-AAGATGCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGATGCTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F3520-TGCTGTTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTGTTCCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F3521-TCCACAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCACAGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F3522-GTAGCACTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCACTCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F3523-CACTCATGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTCATGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F3524-AGATGGTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATGGTACCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F3525-ACACATGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACATGGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F3526-TACCTGGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCTGGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F3527-CAGCTTGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGCTTGACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F3528-GTTCATGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCATGAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F3529-GAGGAAGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGGAAGCATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F3530-ACACGAACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACGAACGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F3531-TTCCTTCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCCTTCCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F3532-GTGAACAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAACAGTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F3533-TAGAAGTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAAGTTGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>F3534-GACTACGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTACGATCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>F3535-CGTACCTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTACCTCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>F3536-TCAGACAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGACAGACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>F3537-AGAACTACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACTACTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>F3538-GTGTAGTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTAGTCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>F3539-GTGGTAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGGTAGTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>F3540-AAGTGGTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGGTAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>F3541-GTACGTGAGT</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACGTACGTGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>F3459-GACGTGTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACGTGTTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>F3460-AAGAGGTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGGTCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>F3461-GTTCAGCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCAGCTAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>F3462-CTTGTCTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGTCTTCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>F3463-AAGGATGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGATGGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>F3464-TGGAAGCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGAAGCTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>F3465-CACGTACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACGTACCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>F3466-AACAAGTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGTCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>F3467-ATGCTGACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTGACGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>F3468-ACACACAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACACAGGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>F3469-CAGTCGTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTCGTTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>F3470-AAGAACGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAACGACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>F3471-GTCACAACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCACAACAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>F3472-AACAAGGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGGTTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>F3473-AACTCTTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCTTCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>F3474-CCATCAACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCATCAACGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>F3475-AGTCACTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCACTACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>F3476-ATGCTACTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTACTGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>F3477-GAAGCTTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCTTCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>F3478-CACTGACATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTGACATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>F3479-GTCTGAGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTGAGCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>F3480-ATCAACGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAACGACGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>F3481-TCGAACGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGAACGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F3482-GTGCTACACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGCTACACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>F3483-TCAGAGACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAGACTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>F3484-TTGCTCTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTCTCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>F3485-ACTGAAGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGAAGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>F3486-TAGGAGCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGAGCACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>F3487-ATCACTGACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCACTGACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>F3488-TTGTGATCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTGATCTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F3489-TCTGTCCTGA</t>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>F3542-TCTGTCCTGA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACTCTGTCCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F3490-GATCCACCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCCACCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F3491-AACGAAGGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGAAGGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F3492-ATCTGCACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTGCACATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F3493-GAAGCTGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCTGTACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F3494-GACCTCTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACCTCTTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F3495-AAGTGACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGACCTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F3496-ATGGTGTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGTGTTGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F3497-CCTAGATGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGATGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F3498-CAACTCGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACTCGTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F3499-CATCAGTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCAGTGCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F3500-TTCCAACGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCAACGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F3501-CTCACCATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCACCATCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F3502-ACACAAGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACAAGACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F3503-ACTGCTCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGCTCTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F3504-ACCAACAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAACAGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F3505-GCTGTTCGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTGTTCGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F3506-TCACACACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACACACGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F3507-ACGACCAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGACCAGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F3508-TCATGGTCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATGGTCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F3509-GCTAGATCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGATCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F3510-AAGAACACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAACACTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F3511-TGTAGCACTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGCACTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F3512-TCGTTGGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTTGGACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F3513-AACCAACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCAACAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F3514-AAGTAGGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTAGGACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F3515-ATGAGACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAGACAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F3516-CAGTAGGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTAGGTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F3517-TCTAGCTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGCTCCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3518-AGTACTCCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTACTCCTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F3519-TCAACTGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACTGTCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F3520-CTACCTGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACCTGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F3521-AAGTGTCGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGTCGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F3522-ACTTGGATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTGGATCATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F3523-ACATCACTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATCACTGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F3524-TTGCAACAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCAACAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F3525-ACAACAGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACAGGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F3526-GCTACACTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTACACTCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F3527-CTACCATGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACCATGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F3528-ATGGTGAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGTGAAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F3529-AACAAGCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAAGCACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F3530-TCAGCAACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCAACTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F3531-TCTCTTGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTTGAGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F3532-TACAGCAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGCAACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F3533-CGTGATCGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTGATCGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>F3534-GAGTACCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTACCTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>F3535-TGGTGACGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGACGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>F3536-ATGAGCTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAGCTTCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>F3537-TGGTGGAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGGAGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>F3538-ATGTGAGTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTGAGTCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>F3539-TTGACCTGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGACCTGTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>F3540-TCTTCCTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTCCTTGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>F3541-GAACCAGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACCAGGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>F3542-TGAGAGTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGAGTCTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F3543-GTCCTTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCCTTCAAGTCGTCGGCAGCGTC</t>
+    <t>F3543-TCTGCTAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGCTAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F3544-ACTAGGTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTAGGTTCTTCGTCGGCAGCGTC</t>
+    <t>F3544-CTGAGTGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGTGCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F3545-GAAGCAAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCAAGACTCGTCGGCAGCGTC</t>
+    <t>F3545-CGTACATGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTACATGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F3546-ATCCAACTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCAACTGGTCGTCGGCAGCGTC</t>
+    <t>F3546-CTTCAAGAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAAGAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F3547-ATGGTTCCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGGTTCCACTCGTCGGCAGCGTC</t>
+    <t>F3547-TGTCTGACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTGACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F3548-GTCTACTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTACTCTATCGTCGGCAGCGTC</t>
+    <t>F3548-AACAGACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAGACGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F3549-TTCACTGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCACTGCATTCGTCGGCAGCGTC</t>
+    <t>F3549-AACCTCAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTCAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F3550-ATCCTAGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCTAGTCATCGTCGGCAGCGTC</t>
+    <t>F3550-ATCGAACACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGAACACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F3551-ACTCACACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCACACTCTCGTCGGCAGCGTC</t>
+    <t>F3551-CTCAAGTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCAAGTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F3552-GAGCAGTTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGCAGTTGATCGTCGGCAGCGTC</t>
+    <t>F3552-AGAGACTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACTGTATCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
